--- a/stock_historical_data/1mo/SYNCOMF.NS.xlsx
+++ b/stock_historical_data/1mo/SYNCOMF.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,63 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12.19999980926514</v>
+      </c>
+      <c r="C20" t="n">
+        <v>12.44999980926514</v>
+      </c>
+      <c r="D20" t="n">
+        <v>12.10000038146973</v>
+      </c>
+      <c r="E20" t="n">
+        <v>12.35000038146973</v>
+      </c>
+      <c r="F20" t="n">
+        <v>12.35000038146973</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>22</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/SYNCOMF.NS.xlsx
+++ b/stock_historical_data/1mo/SYNCOMF.NS.xlsx
@@ -1589,7 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/SYNCOMF.NS.xlsx
+++ b/stock_historical_data/1mo/SYNCOMF.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B2" t="n">
-        <v>7.949999809265137</v>
+        <v>8.75</v>
       </c>
       <c r="C2" t="n">
-        <v>11.60000038146973</v>
+        <v>8.75</v>
       </c>
       <c r="D2" t="n">
-        <v>7.650000095367432</v>
+        <v>7.699999809265137</v>
       </c>
       <c r="E2" t="n">
-        <v>8.850000381469727</v>
-      </c>
-      <c r="F2" t="n">
-        <v>8.850000381469727</v>
-      </c>
+        <v>7.800000190734863</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>80018852</v>
+        <v>5826836</v>
       </c>
       <c r="H2" t="n">
         <v>2022</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>48</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B3" t="n">
-        <v>8.899999618530273</v>
+        <v>7.949999809265137</v>
       </c>
       <c r="C3" t="n">
-        <v>9.75</v>
+        <v>11.60000038146973</v>
       </c>
       <c r="D3" t="n">
-        <v>7.099999904632568</v>
+        <v>7.650000095367432</v>
       </c>
       <c r="E3" t="n">
-        <v>7.800000190734863</v>
+        <v>8.850000381469727</v>
       </c>
       <c r="F3" t="n">
-        <v>7.800000190734863</v>
+        <v>8.850000381469727</v>
       </c>
       <c r="G3" t="n">
-        <v>45813334</v>
+        <v>80018852</v>
       </c>
       <c r="H3" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>8.899999618530273</v>
       </c>
       <c r="C4" t="n">
-        <v>8.050000190734863</v>
+        <v>9.75</v>
       </c>
       <c r="D4" t="n">
-        <v>6.150000095367432</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="E4" t="n">
-        <v>6.199999809265137</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="F4" t="n">
-        <v>6.199999809265137</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="G4" t="n">
-        <v>23045754</v>
+        <v>45813334</v>
       </c>
       <c r="H4" t="n">
         <v>2023</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.050000190734863</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.150000095367432</v>
+      </c>
+      <c r="E5" t="n">
         <v>6.199999809265137</v>
       </c>
-      <c r="C5" t="n">
-        <v>7.099999904632568</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.599999904632568</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.900000095367432</v>
-      </c>
       <c r="F5" t="n">
-        <v>5.900000095367432</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="G5" t="n">
-        <v>31323285</v>
+        <v>23045754</v>
       </c>
       <c r="H5" t="n">
         <v>2023</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B6" t="n">
+        <v>6.199999809265137</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.099999904632568</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.599999904632568</v>
+      </c>
+      <c r="E6" t="n">
         <v>5.900000095367432</v>
       </c>
-      <c r="C6" t="n">
-        <v>6.900000095367432</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.800000190734863</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6.099999904632568</v>
-      </c>
       <c r="F6" t="n">
-        <v>6.099999904632568</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="G6" t="n">
-        <v>17645184</v>
+        <v>31323285</v>
       </c>
       <c r="H6" t="n">
         <v>2023</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B7" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.900000095367432</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="E7" t="n">
         <v>6.099999904632568</v>
       </c>
-      <c r="C7" t="n">
-        <v>7.449999809265137</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6.050000190734863</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6.849999904632568</v>
-      </c>
       <c r="F7" t="n">
-        <v>6.849999904632568</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="G7" t="n">
-        <v>30930877</v>
+        <v>17645184</v>
       </c>
       <c r="H7" t="n">
         <v>2023</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B8" t="n">
+        <v>6.099999904632568</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.449999809265137</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.050000190734863</v>
+      </c>
+      <c r="E8" t="n">
         <v>6.849999904632568</v>
       </c>
-      <c r="C8" t="n">
-        <v>8.300000190734863</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6.599999904632568</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.550000190734863</v>
-      </c>
       <c r="F8" t="n">
-        <v>7.550000190734863</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="G8" t="n">
-        <v>47314163</v>
+        <v>30930877</v>
       </c>
       <c r="H8" t="n">
         <v>2023</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B9" t="n">
-        <v>7.650000095367432</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="C9" t="n">
-        <v>8.25</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="D9" t="n">
-        <v>7.099999904632568</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="E9" t="n">
-        <v>7.900000095367432</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="F9" t="n">
-        <v>7.900000095367432</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="G9" t="n">
-        <v>36219652</v>
+        <v>47314163</v>
       </c>
       <c r="H9" t="n">
         <v>2023</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B10" t="n">
+        <v>7.650000095367432</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.099999904632568</v>
+      </c>
+      <c r="E10" t="n">
         <v>7.900000095367432</v>
       </c>
-      <c r="C10" t="n">
-        <v>9.850000381469727</v>
-      </c>
-      <c r="D10" t="n">
-        <v>7.199999809265137</v>
-      </c>
-      <c r="E10" t="n">
-        <v>8.600000381469727</v>
-      </c>
       <c r="F10" t="n">
-        <v>8.600000381469727</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="G10" t="n">
-        <v>102622688</v>
+        <v>36219652</v>
       </c>
       <c r="H10" t="n">
         <v>2023</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B11" t="n">
-        <v>8.649999618530273</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>9.850000381469727</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="E11" t="n">
-        <v>8.399999618530273</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="F11" t="n">
-        <v>8.399999618530273</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="G11" t="n">
-        <v>32016057</v>
+        <v>102622688</v>
       </c>
       <c r="H11" t="n">
         <v>2023</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1056,16 +1048,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B12" t="n">
-        <v>8.399999618530273</v>
+        <v>8.649999618530273</v>
       </c>
       <c r="C12" t="n">
-        <v>9.850000381469727</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>7.25</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
         <v>8.399999618530273</v>
@@ -1074,13 +1066,13 @@
         <v>8.399999618530273</v>
       </c>
       <c r="G12" t="n">
-        <v>83599535</v>
+        <v>32016057</v>
       </c>
       <c r="H12" t="n">
         <v>2023</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B13" t="n">
-        <v>8.449999809265137</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="C13" t="n">
-        <v>13.69999980926514</v>
+        <v>9.850000381469727</v>
       </c>
       <c r="D13" t="n">
-        <v>8.25</v>
+        <v>7.25</v>
       </c>
       <c r="E13" t="n">
-        <v>11.75</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="F13" t="n">
-        <v>11.75</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="G13" t="n">
-        <v>203239198</v>
+        <v>83599535</v>
       </c>
       <c r="H13" t="n">
         <v>2023</v>
       </c>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B14" t="n">
-        <v>11.89999961853027</v>
+        <v>8.449999809265137</v>
       </c>
       <c r="C14" t="n">
-        <v>16.89999961853027</v>
+        <v>13.69999980926514</v>
       </c>
       <c r="D14" t="n">
-        <v>10.55000019073486</v>
+        <v>8.25</v>
       </c>
       <c r="E14" t="n">
-        <v>15.05000019073486</v>
+        <v>11.75</v>
       </c>
       <c r="F14" t="n">
-        <v>15.05000019073486</v>
+        <v>11.75</v>
       </c>
       <c r="G14" t="n">
-        <v>234427152</v>
+        <v>203239198</v>
       </c>
       <c r="H14" t="n">
         <v>2023</v>
       </c>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1215,31 +1207,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B15" t="n">
-        <v>15.35000038146973</v>
+        <v>11.89999961853027</v>
       </c>
       <c r="C15" t="n">
-        <v>18.64999961853027</v>
+        <v>16.89999961853027</v>
       </c>
       <c r="D15" t="n">
-        <v>14.69999980926514</v>
+        <v>10.55000019073486</v>
       </c>
       <c r="E15" t="n">
-        <v>16.14999961853027</v>
+        <v>15.05000019073486</v>
       </c>
       <c r="F15" t="n">
-        <v>16.14999961853027</v>
+        <v>15.05000019073486</v>
       </c>
       <c r="G15" t="n">
-        <v>175616279</v>
+        <v>234427152</v>
       </c>
       <c r="H15" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,10 +1246,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1268,31 +1260,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B16" t="n">
-        <v>16.54999923706055</v>
+        <v>15.35000038146973</v>
       </c>
       <c r="C16" t="n">
-        <v>16.54999923706055</v>
+        <v>18.64999961853027</v>
       </c>
       <c r="D16" t="n">
-        <v>13.44999980926514</v>
+        <v>14.69999980926514</v>
       </c>
       <c r="E16" t="n">
-        <v>14.60000038146973</v>
+        <v>16.14999961853027</v>
       </c>
       <c r="F16" t="n">
-        <v>14.60000038146973</v>
+        <v>16.14999961853027</v>
       </c>
       <c r="G16" t="n">
-        <v>41752996</v>
+        <v>175616279</v>
       </c>
       <c r="H16" t="n">
         <v>2024</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1321,31 +1313,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B17" t="n">
-        <v>15</v>
+        <v>16.54999923706055</v>
       </c>
       <c r="C17" t="n">
-        <v>15.10000038146973</v>
+        <v>16.54999923706055</v>
       </c>
       <c r="D17" t="n">
-        <v>11</v>
+        <v>13.44999980926514</v>
       </c>
       <c r="E17" t="n">
-        <v>11.14999961853027</v>
+        <v>14.60000038146973</v>
       </c>
       <c r="F17" t="n">
-        <v>11.14999961853027</v>
+        <v>14.60000038146973</v>
       </c>
       <c r="G17" t="n">
-        <v>24155609</v>
+        <v>41752996</v>
       </c>
       <c r="H17" t="n">
         <v>2024</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1374,31 +1366,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B18" t="n">
-        <v>11.44999980926514</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>14.44999980926514</v>
+        <v>15.10000038146973</v>
       </c>
       <c r="D18" t="n">
-        <v>11.30000019073486</v>
+        <v>11</v>
       </c>
       <c r="E18" t="n">
-        <v>13.64999961853027</v>
+        <v>11.14999961853027</v>
       </c>
       <c r="F18" t="n">
-        <v>13.64999961853027</v>
+        <v>11.14999961853027</v>
       </c>
       <c r="G18" t="n">
-        <v>29193403</v>
+        <v>24155609</v>
       </c>
       <c r="H18" t="n">
         <v>2024</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1427,31 +1419,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B19" t="n">
+        <v>11.44999980926514</v>
+      </c>
+      <c r="C19" t="n">
+        <v>14.44999980926514</v>
+      </c>
+      <c r="D19" t="n">
+        <v>11.30000019073486</v>
+      </c>
+      <c r="E19" t="n">
         <v>13.64999961853027</v>
       </c>
-      <c r="C19" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="D19" t="n">
-        <v>11.89999961853027</v>
-      </c>
-      <c r="E19" t="n">
-        <v>11.94999980926514</v>
-      </c>
       <c r="F19" t="n">
-        <v>11.94999980926514</v>
+        <v>13.64999961853027</v>
       </c>
       <c r="G19" t="n">
-        <v>47010657</v>
+        <v>29193403</v>
       </c>
       <c r="H19" t="n">
         <v>2024</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1480,56 +1472,514 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B20" t="n">
-        <v>12.19999980926514</v>
+        <v>13.64999961853027</v>
       </c>
       <c r="C20" t="n">
-        <v>12.5</v>
+        <v>14.25</v>
       </c>
       <c r="D20" t="n">
-        <v>10.94999980926514</v>
+        <v>11.89999961853027</v>
       </c>
       <c r="E20" t="n">
-        <v>12</v>
+        <v>11.94999980926514</v>
       </c>
       <c r="F20" t="n">
-        <v>12</v>
+        <v>11.94999980926514</v>
       </c>
       <c r="G20" t="n">
-        <v>15608076</v>
+        <v>47010657</v>
       </c>
       <c r="H20" t="n">
         <v>2024</v>
       </c>
       <c r="I20" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>18</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12.19999980926514</v>
+      </c>
+      <c r="C21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10.94999980926514</v>
+      </c>
+      <c r="E21" t="n">
+        <v>12</v>
+      </c>
+      <c r="F21" t="n">
+        <v>12</v>
+      </c>
+      <c r="G21" t="n">
+        <v>15608076</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I21" t="n">
         <v>6</v>
       </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>22</v>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12.53999996185303</v>
+      </c>
+      <c r="C22" t="n">
+        <v>17.38999938964844</v>
+      </c>
+      <c r="D22" t="n">
+        <v>12.44999980926514</v>
+      </c>
+      <c r="E22" t="n">
+        <v>15.71000003814697</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>171887885</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>27</v>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B23" t="n">
+        <v>15.84000015258789</v>
+      </c>
+      <c r="C23" t="n">
+        <v>23.04999923706055</v>
+      </c>
+      <c r="D23" t="n">
+        <v>14.67000007629395</v>
+      </c>
+      <c r="E23" t="n">
+        <v>20.6299991607666</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>355548420</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>31</v>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B24" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="C24" t="n">
+        <v>27.89999961853027</v>
+      </c>
+      <c r="D24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>21.80999946594238</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>351994281</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>35</v>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B25" t="n">
+        <v>21.89999961853027</v>
+      </c>
+      <c r="C25" t="n">
+        <v>22.79000091552734</v>
+      </c>
+      <c r="D25" t="n">
+        <v>17.84000015258789</v>
+      </c>
+      <c r="E25" t="n">
+        <v>20.20000076293945</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>101900722</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I25" t="n">
+        <v>10</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>40</v>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B26" t="n">
+        <v>20.36000061035156</v>
+      </c>
+      <c r="C26" t="n">
+        <v>22.07999992370605</v>
+      </c>
+      <c r="D26" t="n">
+        <v>19.45000076293945</v>
+      </c>
+      <c r="E26" t="n">
+        <v>20.11000061035156</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>51108301</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I26" t="n">
+        <v>11</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>44</v>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B27" t="n">
+        <v>20.10000038146973</v>
+      </c>
+      <c r="C27" t="n">
+        <v>23.8700008392334</v>
+      </c>
+      <c r="D27" t="n">
+        <v>19.46999931335449</v>
+      </c>
+      <c r="E27" t="n">
+        <v>20</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>68359548</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I27" t="n">
+        <v>12</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>48</v>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B28" t="n">
+        <v>20.03000068664551</v>
+      </c>
+      <c r="C28" t="n">
+        <v>21.04999923706055</v>
+      </c>
+      <c r="D28" t="n">
+        <v>16.14999961853027</v>
+      </c>
+      <c r="E28" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>51415986</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B29" t="n">
+        <v>18.48999977111816</v>
+      </c>
+      <c r="C29" t="n">
+        <v>19.32999992370605</v>
+      </c>
+      <c r="D29" t="n">
+        <v>15.22999954223633</v>
+      </c>
+      <c r="E29" t="n">
+        <v>15.34000015258789</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>40938927</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5</v>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B30" t="n">
+        <v>15.19999980926514</v>
+      </c>
+      <c r="C30" t="n">
+        <v>18.45999908447266</v>
+      </c>
+      <c r="D30" t="n">
+        <v>14.10000038146973</v>
+      </c>
+      <c r="E30" t="n">
+        <v>16.45999908447266</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>46739312</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>9</v>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
